--- a/Data/arbetsloshet_kommun.xlsx
+++ b/Data/arbetsloshet_kommun.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">regionkod</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gagnef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
   </si>
   <si>
     <t xml:space="preserve">2029</t>
@@ -12462,15 +12465,15 @@
         <v>86.6</v>
       </c>
       <c r="R211" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B212" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -12523,10 +12526,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B213" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
@@ -12579,10 +12582,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B214" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
@@ -12635,10 +12638,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B215" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
         <v>20</v>
@@ -12691,10 +12694,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B216" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C216" t="s">
         <v>20</v>
@@ -12747,10 +12750,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C217" t="s">
         <v>20</v>
@@ -12803,10 +12806,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C218" t="s">
         <v>20</v>
@@ -12859,10 +12862,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C219" t="s">
         <v>20</v>
@@ -12915,10 +12918,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C220" t="s">
         <v>20</v>
@@ -12971,10 +12974,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B221" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C221" t="s">
         <v>20</v>
@@ -13027,10 +13030,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C222" t="s">
         <v>20</v>
@@ -13083,10 +13086,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B223" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C223" t="s">
         <v>20</v>
@@ -13139,10 +13142,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B224" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C224" t="s">
         <v>20</v>
@@ -13195,10 +13198,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B225" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C225" t="s">
         <v>20</v>
@@ -13251,10 +13254,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C226" t="s">
         <v>20</v>
@@ -13307,10 +13310,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B227" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s">
         <v>20</v>
@@ -13363,10 +13366,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B228" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C228" t="s">
         <v>20</v>
@@ -13419,10 +13422,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B229" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C229" t="s">
         <v>20</v>
@@ -13475,10 +13478,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C230" t="s">
         <v>20</v>
@@ -13531,10 +13534,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C231" t="s">
         <v>20</v>
@@ -13587,10 +13590,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B232" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C232" t="s">
         <v>20</v>
@@ -13643,10 +13646,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B233" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C233" t="s">
         <v>20</v>
@@ -13699,10 +13702,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B234" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C234" t="s">
         <v>20</v>
@@ -13755,10 +13758,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B235" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
         <v>20</v>
@@ -13811,10 +13814,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C236" t="s">
         <v>20</v>
@@ -13867,10 +13870,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B237" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C237" t="s">
         <v>20</v>
@@ -13923,10 +13926,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B238" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C238" t="s">
         <v>20</v>
@@ -13979,10 +13982,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B239" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C239" t="s">
         <v>20</v>
@@ -14035,10 +14038,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C240" t="s">
         <v>20</v>
@@ -14091,10 +14094,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C241" t="s">
         <v>20</v>
@@ -14147,10 +14150,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C242" t="s">
         <v>20</v>
@@ -14203,10 +14206,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C243" t="s">
         <v>20</v>
@@ -14259,10 +14262,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B244" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C244" t="s">
         <v>20</v>
@@ -14315,10 +14318,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B245" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C245" t="s">
         <v>20</v>
@@ -14371,10 +14374,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B246" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
         <v>20</v>
@@ -14427,10 +14430,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C247" t="s">
         <v>20</v>
@@ -14483,10 +14486,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B248" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C248" t="s">
         <v>20</v>
@@ -14539,10 +14542,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B249" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C249" t="s">
         <v>20</v>
@@ -14595,10 +14598,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C250" t="s">
         <v>20</v>
@@ -14651,10 +14654,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
@@ -14707,10 +14710,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B252" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C252" t="s">
         <v>20</v>
@@ -14763,10 +14766,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B253" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
@@ -14819,10 +14822,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B254" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C254" t="s">
         <v>20</v>
@@ -14875,10 +14878,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B255" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
@@ -14931,10 +14934,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B256" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C256" t="s">
         <v>20</v>
@@ -14987,10 +14990,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B257" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
@@ -15043,10 +15046,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B258" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C258" t="s">
         <v>20</v>
@@ -15099,10 +15102,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B259" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
@@ -15155,10 +15158,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B260" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C260" t="s">
         <v>20</v>
@@ -15211,10 +15214,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B261" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C261" t="s">
         <v>20</v>
@@ -15267,10 +15270,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B262" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C262" t="s">
         <v>20</v>
@@ -15323,10 +15326,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B263" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C263" t="s">
         <v>20</v>
@@ -15379,10 +15382,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B264" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C264" t="s">
         <v>20</v>
@@ -15435,10 +15438,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B265" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C265" t="s">
         <v>20</v>
@@ -15491,10 +15494,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B266" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
@@ -15547,10 +15550,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B267" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
@@ -15603,10 +15606,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B268" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
@@ -15659,10 +15662,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B269" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C269" t="s">
         <v>20</v>
@@ -15715,10 +15718,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B270" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C270" t="s">
         <v>20</v>
@@ -15771,10 +15774,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B271" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C271" t="s">
         <v>20</v>
@@ -15827,10 +15830,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B272" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C272" t="s">
         <v>20</v>
@@ -15883,10 +15886,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B273" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C273" t="s">
         <v>20</v>
@@ -15939,10 +15942,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B274" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C274" t="s">
         <v>20</v>
@@ -15995,10 +15998,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B275" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C275" t="s">
         <v>20</v>
@@ -16051,10 +16054,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B276" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
@@ -16107,10 +16110,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B277" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C277" t="s">
         <v>20</v>
@@ -16163,10 +16166,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B278" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C278" t="s">
         <v>20</v>
@@ -16219,10 +16222,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B279" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C279" t="s">
         <v>20</v>
@@ -16275,10 +16278,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B280" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C280" t="s">
         <v>20</v>
@@ -16331,10 +16334,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B281" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C281" t="s">
         <v>20</v>
@@ -16387,10 +16390,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B282" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C282" t="s">
         <v>20</v>
@@ -16443,10 +16446,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B283" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C283" t="s">
         <v>20</v>
@@ -16499,10 +16502,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B284" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
@@ -16555,10 +16558,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B285" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C285" t="s">
         <v>20</v>
@@ -16611,10 +16614,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B286" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C286" t="s">
         <v>20</v>
@@ -16667,10 +16670,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B287" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C287" t="s">
         <v>20</v>
@@ -16723,10 +16726,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B288" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C288" t="s">
         <v>20</v>
@@ -16779,10 +16782,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B289" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C289" t="s">
         <v>20</v>
@@ -16835,10 +16838,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B290" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C290" t="s">
         <v>20</v>
@@ -16891,10 +16894,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B291" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C291" t="s">
         <v>20</v>
@@ -16947,10 +16950,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B292" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C292" t="s">
         <v>20</v>
@@ -17003,10 +17006,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B293" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C293" t="s">
         <v>20</v>
@@ -17059,10 +17062,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B294" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C294" t="s">
         <v>20</v>
@@ -17115,10 +17118,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B295" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C295" t="s">
         <v>20</v>
@@ -17171,10 +17174,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B296" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C296" t="s">
         <v>20</v>
@@ -17227,10 +17230,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B297" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C297" t="s">
         <v>20</v>
@@ -17283,10 +17286,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B298" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C298" t="s">
         <v>20</v>
@@ -17339,10 +17342,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B299" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C299" t="s">
         <v>20</v>
@@ -17395,10 +17398,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B300" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C300" t="s">
         <v>20</v>
@@ -17451,10 +17454,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B301" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C301" t="s">
         <v>20</v>
@@ -17507,10 +17510,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B302" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C302" t="s">
         <v>20</v>
@@ -17563,10 +17566,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B303" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C303" t="s">
         <v>20</v>
@@ -17619,10 +17622,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B304" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
@@ -17675,10 +17678,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B305" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C305" t="s">
         <v>20</v>
@@ -17731,10 +17734,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B306" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C306" t="s">
         <v>20</v>
@@ -17787,10 +17790,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B307" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
@@ -17843,10 +17846,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B308" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
@@ -17899,10 +17902,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B309" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C309" t="s">
         <v>20</v>
@@ -17955,10 +17958,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B310" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C310" t="s">
         <v>20</v>
@@ -18011,10 +18014,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B311" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
@@ -18067,10 +18070,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B312" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C312" t="s">
         <v>20</v>
@@ -18123,10 +18126,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B313" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C313" t="s">
         <v>20</v>
@@ -18179,10 +18182,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B314" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C314" t="s">
         <v>20</v>
@@ -18235,10 +18238,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B315" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C315" t="s">
         <v>20</v>
@@ -18291,10 +18294,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B316" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C316" t="s">
         <v>20</v>
@@ -18347,10 +18350,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B317" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C317" t="s">
         <v>20</v>
@@ -18403,10 +18406,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B318" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C318" t="s">
         <v>20</v>
@@ -18459,10 +18462,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B319" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C319" t="s">
         <v>20</v>
@@ -18515,10 +18518,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B320" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C320" t="s">
         <v>20</v>
@@ -18571,10 +18574,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B321" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C321" t="s">
         <v>20</v>
@@ -18627,10 +18630,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B322" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C322" t="s">
         <v>20</v>
@@ -18683,10 +18686,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B323" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C323" t="s">
         <v>20</v>
@@ -18739,10 +18742,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B324" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C324" t="s">
         <v>20</v>
@@ -18795,10 +18798,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B325" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C325" t="s">
         <v>20</v>
@@ -18851,10 +18854,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B326" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C326" t="s">
         <v>20</v>
@@ -18907,10 +18910,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B327" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C327" t="s">
         <v>20</v>
@@ -18963,10 +18966,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B328" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C328" t="s">
         <v>20</v>
@@ -19019,10 +19022,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C329" t="s">
         <v>20</v>
@@ -19075,10 +19078,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B330" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C330" t="s">
         <v>20</v>
@@ -19131,10 +19134,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B331" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C331" t="s">
         <v>20</v>
@@ -19187,10 +19190,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B332" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C332" t="s">
         <v>20</v>
@@ -19243,10 +19246,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B333" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C333" t="s">
         <v>20</v>
@@ -19299,10 +19302,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B334" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C334" t="s">
         <v>20</v>
@@ -19355,10 +19358,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B335" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C335" t="s">
         <v>20</v>
@@ -19411,10 +19414,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B336" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C336" t="s">
         <v>20</v>
@@ -19467,10 +19470,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B337" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C337" t="s">
         <v>20</v>
@@ -19523,10 +19526,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B338" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C338" t="s">
         <v>20</v>
@@ -19579,10 +19582,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B339" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C339" t="s">
         <v>20</v>
@@ -19635,10 +19638,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B340" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C340" t="s">
         <v>20</v>
@@ -19691,10 +19694,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B341" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C341" t="s">
         <v>20</v>
@@ -19747,10 +19750,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B342" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C342" t="s">
         <v>20</v>
@@ -19803,10 +19806,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B343" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C343" t="s">
         <v>20</v>
@@ -19859,10 +19862,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B344" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C344" t="s">
         <v>20</v>
@@ -19915,10 +19918,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B345" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C345" t="s">
         <v>20</v>
@@ -19971,10 +19974,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B346" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C346" t="s">
         <v>20</v>
@@ -20027,10 +20030,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B347" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C347" t="s">
         <v>20</v>
@@ -20083,10 +20086,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B348" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
@@ -20139,10 +20142,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B349" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C349" t="s">
         <v>20</v>
@@ -20195,10 +20198,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B350" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C350" t="s">
         <v>20</v>
@@ -20251,10 +20254,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B351" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C351" t="s">
         <v>20</v>
@@ -20307,10 +20310,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B352" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C352" t="s">
         <v>20</v>
@@ -20363,10 +20366,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B353" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C353" t="s">
         <v>20</v>
@@ -20419,10 +20422,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B354" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C354" t="s">
         <v>20</v>
@@ -20475,10 +20478,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B355" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C355" t="s">
         <v>20</v>
@@ -20531,10 +20534,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C356" t="s">
         <v>20</v>
@@ -20587,10 +20590,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B357" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C357" t="s">
         <v>20</v>
@@ -20643,10 +20646,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B358" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C358" t="s">
         <v>20</v>
@@ -20699,10 +20702,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B359" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C359" t="s">
         <v>20</v>
@@ -20755,10 +20758,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B360" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C360" t="s">
         <v>20</v>
@@ -20811,10 +20814,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B361" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C361" t="s">
         <v>20</v>
@@ -20867,10 +20870,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B362" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C362" t="s">
         <v>20</v>
@@ -20923,10 +20926,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B363" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C363" t="s">
         <v>20</v>
@@ -20979,10 +20982,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B364" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C364" t="s">
         <v>20</v>
@@ -21035,10 +21038,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B365" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C365" t="s">
         <v>20</v>
@@ -21091,10 +21094,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B366" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C366" t="s">
         <v>20</v>
@@ -21147,10 +21150,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B367" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C367" t="s">
         <v>20</v>
@@ -21203,10 +21206,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B368" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C368" t="s">
         <v>20</v>
@@ -21259,10 +21262,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B369" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C369" t="s">
         <v>20</v>
@@ -21315,10 +21318,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B370" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C370" t="s">
         <v>20</v>
@@ -21371,10 +21374,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B371" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C371" t="s">
         <v>20</v>
@@ -21427,10 +21430,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B372" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C372" t="s">
         <v>20</v>
@@ -21483,10 +21486,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B373" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C373" t="s">
         <v>20</v>
@@ -21539,10 +21542,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B374" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C374" t="s">
         <v>20</v>
@@ -21595,10 +21598,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B375" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C375" t="s">
         <v>20</v>
@@ -21651,10 +21654,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B376" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C376" t="s">
         <v>20</v>
@@ -21707,10 +21710,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B377" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C377" t="s">
         <v>20</v>
@@ -21763,10 +21766,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B378" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C378" t="s">
         <v>20</v>
@@ -21819,10 +21822,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B379" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C379" t="s">
         <v>20</v>
@@ -21875,10 +21878,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B380" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C380" t="s">
         <v>20</v>
@@ -21931,10 +21934,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B381" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C381" t="s">
         <v>20</v>
@@ -21987,10 +21990,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B382" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C382" t="s">
         <v>20</v>
@@ -22043,10 +22046,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B383" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C383" t="s">
         <v>20</v>
@@ -22099,10 +22102,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B384" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C384" t="s">
         <v>20</v>
@@ -22155,10 +22158,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B385" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C385" t="s">
         <v>20</v>
@@ -22211,10 +22214,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B386" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C386" t="s">
         <v>20</v>
@@ -22267,10 +22270,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B387" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C387" t="s">
         <v>20</v>
@@ -22323,10 +22326,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B388" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C388" t="s">
         <v>20</v>
@@ -22379,10 +22382,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B389" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C389" t="s">
         <v>20</v>
@@ -22435,10 +22438,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B390" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C390" t="s">
         <v>20</v>
@@ -22491,10 +22494,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B391" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C391" t="s">
         <v>20</v>
@@ -22547,10 +22550,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B392" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C392" t="s">
         <v>20</v>
@@ -22603,10 +22606,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B393" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C393" t="s">
         <v>20</v>
@@ -22659,10 +22662,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B394" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C394" t="s">
         <v>20</v>
@@ -22715,10 +22718,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B395" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C395" t="s">
         <v>20</v>
@@ -22771,10 +22774,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B396" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C396" t="s">
         <v>20</v>
@@ -22827,10 +22830,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B397" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C397" t="s">
         <v>20</v>
@@ -22883,10 +22886,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B398" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C398" t="s">
         <v>20</v>
@@ -22939,10 +22942,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B399" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C399" t="s">
         <v>20</v>
@@ -22995,10 +22998,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B400" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C400" t="s">
         <v>20</v>
@@ -23051,10 +23054,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B401" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C401" t="s">
         <v>20</v>
@@ -23107,10 +23110,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B402" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C402" t="s">
         <v>20</v>
@@ -23163,10 +23166,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B403" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C403" t="s">
         <v>20</v>
@@ -23219,10 +23222,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B404" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C404" t="s">
         <v>20</v>
@@ -23275,10 +23278,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B405" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C405" t="s">
         <v>20</v>
@@ -23331,10 +23334,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B406" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C406" t="s">
         <v>20</v>
@@ -23387,10 +23390,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B407" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C407" t="s">
         <v>20</v>
@@ -23443,10 +23446,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B408" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C408" t="s">
         <v>20</v>
@@ -23499,10 +23502,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B409" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C409" t="s">
         <v>20</v>
@@ -23555,10 +23558,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B410" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C410" t="s">
         <v>20</v>
@@ -23611,10 +23614,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B411" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C411" t="s">
         <v>20</v>
@@ -23667,10 +23670,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B412" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C412" t="s">
         <v>20</v>
@@ -23723,10 +23726,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B413" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C413" t="s">
         <v>20</v>
@@ -23779,10 +23782,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B414" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C414" t="s">
         <v>20</v>
@@ -23835,10 +23838,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B415" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C415" t="s">
         <v>20</v>
@@ -23891,10 +23894,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B416" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C416" t="s">
         <v>20</v>
@@ -23947,10 +23950,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B417" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C417" t="s">
         <v>20</v>
@@ -24003,10 +24006,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B418" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C418" t="s">
         <v>20</v>
@@ -24059,10 +24062,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B419" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C419" t="s">
         <v>20</v>
@@ -24115,10 +24118,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B420" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C420" t="s">
         <v>20</v>
@@ -24171,10 +24174,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B421" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C421" t="s">
         <v>20</v>
@@ -24227,10 +24230,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B422" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C422" t="s">
         <v>20</v>
@@ -24283,10 +24286,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B423" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C423" t="s">
         <v>20</v>
@@ -24339,10 +24342,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B424" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C424" t="s">
         <v>20</v>
@@ -24395,10 +24398,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B425" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C425" t="s">
         <v>20</v>
@@ -24451,10 +24454,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B426" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C426" t="s">
         <v>20</v>
@@ -24507,10 +24510,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B427" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C427" t="s">
         <v>20</v>
@@ -24563,10 +24566,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B428" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C428" t="s">
         <v>20</v>
@@ -24619,10 +24622,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B429" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C429" t="s">
         <v>20</v>
@@ -24675,10 +24678,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B430" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C430" t="s">
         <v>20</v>
@@ -24731,10 +24734,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B431" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C431" t="s">
         <v>20</v>
@@ -24787,10 +24790,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B432" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C432" t="s">
         <v>20</v>
@@ -24843,10 +24846,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B433" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C433" t="s">
         <v>20</v>
@@ -24899,10 +24902,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B434" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C434" t="s">
         <v>20</v>
@@ -24955,10 +24958,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B435" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C435" t="s">
         <v>20</v>
@@ -25011,10 +25014,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B436" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C436" t="s">
         <v>20</v>
@@ -25067,10 +25070,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B437" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C437" t="s">
         <v>20</v>
@@ -25123,10 +25126,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B438" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C438" t="s">
         <v>20</v>
@@ -25179,10 +25182,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B439" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C439" t="s">
         <v>20</v>
@@ -25235,10 +25238,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B440" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C440" t="s">
         <v>20</v>
@@ -25291,10 +25294,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B441" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C441" t="s">
         <v>20</v>
@@ -25347,10 +25350,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B442" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C442" t="s">
         <v>20</v>
@@ -25403,10 +25406,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B443" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C443" t="s">
         <v>20</v>
@@ -25459,10 +25462,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B444" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C444" t="s">
         <v>20</v>
@@ -25515,10 +25518,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B445" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C445" t="s">
         <v>20</v>
@@ -25571,10 +25574,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B446" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C446" t="s">
         <v>20</v>
@@ -25627,10 +25630,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B447" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C447" t="s">
         <v>20</v>
@@ -25683,10 +25686,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B448" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C448" t="s">
         <v>20</v>
@@ -25739,10 +25742,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B449" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C449" t="s">
         <v>20</v>
@@ -25795,10 +25798,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B450" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C450" t="s">
         <v>20</v>
@@ -25851,10 +25854,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B451" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C451" t="s">
         <v>20</v>
@@ -25907,10 +25910,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B452" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C452" t="s">
         <v>20</v>
@@ -25963,10 +25966,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B453" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C453" t="s">
         <v>20</v>
@@ -26019,10 +26022,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B454" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C454" t="s">
         <v>20</v>
@@ -26075,10 +26078,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B455" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C455" t="s">
         <v>20</v>
@@ -26131,10 +26134,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B456" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C456" t="s">
         <v>20</v>
@@ -26187,10 +26190,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B457" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C457" t="s">
         <v>20</v>
@@ -26243,10 +26246,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B458" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C458" t="s">
         <v>20</v>
@@ -26299,10 +26302,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B459" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C459" t="s">
         <v>20</v>
@@ -26355,10 +26358,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B460" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C460" t="s">
         <v>20</v>
@@ -26411,10 +26414,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B461" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C461" t="s">
         <v>20</v>
@@ -26467,10 +26470,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B462" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C462" t="s">
         <v>20</v>
@@ -26523,10 +26526,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B463" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C463" t="s">
         <v>20</v>
@@ -26579,10 +26582,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B464" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C464" t="s">
         <v>20</v>
@@ -26635,10 +26638,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B465" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C465" t="s">
         <v>20</v>
@@ -26691,10 +26694,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B466" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C466" t="s">
         <v>20</v>
@@ -26747,10 +26750,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B467" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C467" t="s">
         <v>20</v>
@@ -26803,10 +26806,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B468" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C468" t="s">
         <v>20</v>
@@ -26859,10 +26862,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B469" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C469" t="s">
         <v>20</v>
@@ -26915,10 +26918,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B470" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C470" t="s">
         <v>20</v>
@@ -26971,10 +26974,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B471" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C471" t="s">
         <v>20</v>
@@ -27027,10 +27030,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B472" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C472" t="s">
         <v>20</v>
@@ -27083,10 +27086,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B473" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C473" t="s">
         <v>20</v>
@@ -27139,10 +27142,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B474" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C474" t="s">
         <v>20</v>
@@ -27195,10 +27198,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B475" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C475" t="s">
         <v>20</v>
@@ -27251,10 +27254,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B476" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C476" t="s">
         <v>20</v>
@@ -27307,10 +27310,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B477" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C477" t="s">
         <v>20</v>
@@ -27363,10 +27366,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B478" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C478" t="s">
         <v>20</v>
@@ -27419,10 +27422,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B479" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C479" t="s">
         <v>20</v>
@@ -27475,10 +27478,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B480" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C480" t="s">
         <v>20</v>
@@ -27531,10 +27534,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B481" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C481" t="s">
         <v>20</v>
@@ -27587,10 +27590,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B482" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C482" t="s">
         <v>20</v>
@@ -27643,10 +27646,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B483" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C483" t="s">
         <v>20</v>
@@ -27699,10 +27702,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B484" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C484" t="s">
         <v>20</v>
@@ -27755,10 +27758,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B485" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C485" t="s">
         <v>20</v>
@@ -27811,10 +27814,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B486" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C486" t="s">
         <v>20</v>
@@ -27867,10 +27870,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B487" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C487" t="s">
         <v>20</v>
@@ -27923,10 +27926,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B488" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C488" t="s">
         <v>20</v>
@@ -27979,10 +27982,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B489" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C489" t="s">
         <v>20</v>
@@ -28035,10 +28038,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B490" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C490" t="s">
         <v>20</v>
@@ -28091,10 +28094,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B491" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C491" t="s">
         <v>20</v>
@@ -28147,10 +28150,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B492" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C492" t="s">
         <v>20</v>
@@ -28203,10 +28206,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B493" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C493" t="s">
         <v>20</v>
@@ -28259,10 +28262,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B494" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C494" t="s">
         <v>20</v>
@@ -28315,10 +28318,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B495" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C495" t="s">
         <v>20</v>
@@ -28371,10 +28374,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B496" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C496" t="s">
         <v>20</v>
@@ -28427,10 +28430,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B497" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C497" t="s">
         <v>20</v>
@@ -28483,10 +28486,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B498" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C498" t="s">
         <v>20</v>
@@ -28539,10 +28542,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B499" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C499" t="s">
         <v>20</v>
@@ -28595,10 +28598,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B500" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C500" t="s">
         <v>20</v>
@@ -28651,10 +28654,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B501" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C501" t="s">
         <v>20</v>
@@ -28707,10 +28710,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B502" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C502" t="s">
         <v>20</v>
@@ -28763,10 +28766,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B503" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C503" t="s">
         <v>20</v>
@@ -28819,10 +28822,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B504" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C504" t="s">
         <v>20</v>
@@ -28875,10 +28878,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B505" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C505" t="s">
         <v>20</v>
@@ -28931,10 +28934,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B506" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C506" t="s">
         <v>20</v>
@@ -28987,10 +28990,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B507" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C507" t="s">
         <v>20</v>
@@ -29043,10 +29046,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B508" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C508" t="s">
         <v>20</v>
@@ -29099,10 +29102,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B509" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C509" t="s">
         <v>20</v>
@@ -29155,10 +29158,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B510" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C510" t="s">
         <v>20</v>
@@ -29211,10 +29214,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B511" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C511" t="s">
         <v>20</v>
@@ -29267,10 +29270,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B512" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C512" t="s">
         <v>20</v>
@@ -29323,10 +29326,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B513" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C513" t="s">
         <v>20</v>
@@ -29379,10 +29382,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B514" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C514" t="s">
         <v>20</v>
@@ -29435,10 +29438,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B515" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C515" t="s">
         <v>20</v>
@@ -29491,10 +29494,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B516" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C516" t="s">
         <v>20</v>
@@ -29547,10 +29550,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B517" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C517" t="s">
         <v>20</v>
@@ -29603,10 +29606,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B518" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C518" t="s">
         <v>20</v>
@@ -29659,10 +29662,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B519" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C519" t="s">
         <v>20</v>
@@ -29715,10 +29718,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B520" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C520" t="s">
         <v>20</v>
@@ -29771,10 +29774,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B521" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C521" t="s">
         <v>20</v>
@@ -29827,10 +29830,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B522" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C522" t="s">
         <v>20</v>
@@ -29883,10 +29886,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B523" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C523" t="s">
         <v>20</v>
@@ -29939,10 +29942,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B524" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C524" t="s">
         <v>20</v>
@@ -29995,10 +29998,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B525" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C525" t="s">
         <v>20</v>
@@ -30051,10 +30054,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B526" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C526" t="s">
         <v>20</v>
@@ -30107,10 +30110,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B527" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C527" t="s">
         <v>20</v>
@@ -30163,10 +30166,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B528" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C528" t="s">
         <v>20</v>
@@ -30219,10 +30222,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B529" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C529" t="s">
         <v>20</v>
@@ -30275,10 +30278,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B530" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C530" t="s">
         <v>20</v>
@@ -30331,10 +30334,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B531" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C531" t="s">
         <v>20</v>
@@ -30387,10 +30390,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B532" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C532" t="s">
         <v>20</v>
@@ -30443,10 +30446,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B533" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C533" t="s">
         <v>20</v>
@@ -30499,10 +30502,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B534" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C534" t="s">
         <v>20</v>
@@ -30555,10 +30558,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B535" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C535" t="s">
         <v>20</v>
@@ -30611,10 +30614,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B536" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C536" t="s">
         <v>20</v>
@@ -30667,10 +30670,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B537" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C537" t="s">
         <v>20</v>
@@ -30723,10 +30726,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B538" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C538" t="s">
         <v>20</v>
@@ -30779,10 +30782,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B539" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C539" t="s">
         <v>20</v>
@@ -30835,10 +30838,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B540" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C540" t="s">
         <v>20</v>
@@ -30891,10 +30894,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B541" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C541" t="s">
         <v>20</v>
@@ -30947,10 +30950,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B542" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C542" t="s">
         <v>20</v>
@@ -31003,10 +31006,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B543" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C543" t="s">
         <v>20</v>
@@ -31059,10 +31062,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B544" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C544" t="s">
         <v>20</v>
@@ -31115,10 +31118,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B545" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C545" t="s">
         <v>20</v>
@@ -31171,10 +31174,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B546" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C546" t="s">
         <v>20</v>
@@ -31227,10 +31230,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B547" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C547" t="s">
         <v>20</v>
@@ -31283,10 +31286,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B548" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C548" t="s">
         <v>20</v>
@@ -31339,10 +31342,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B549" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C549" t="s">
         <v>20</v>
@@ -31395,10 +31398,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B550" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C550" t="s">
         <v>20</v>
@@ -31451,10 +31454,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B551" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C551" t="s">
         <v>20</v>
@@ -31507,10 +31510,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B552" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C552" t="s">
         <v>20</v>
@@ -31563,10 +31566,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B553" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C553" t="s">
         <v>20</v>
@@ -31619,10 +31622,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B554" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C554" t="s">
         <v>20</v>
@@ -31675,10 +31678,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B555" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C555" t="s">
         <v>20</v>
@@ -31731,10 +31734,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B556" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C556" t="s">
         <v>20</v>
@@ -31787,10 +31790,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B557" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C557" t="s">
         <v>20</v>
@@ -31843,10 +31846,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B558" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C558" t="s">
         <v>20</v>
@@ -31899,10 +31902,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B559" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C559" t="s">
         <v>20</v>
@@ -31955,10 +31958,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B560" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C560" t="s">
         <v>20</v>
@@ -32011,10 +32014,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B561" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C561" t="s">
         <v>20</v>
@@ -32067,10 +32070,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B562" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C562" t="s">
         <v>20</v>
@@ -32123,10 +32126,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B563" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C563" t="s">
         <v>20</v>
@@ -32179,10 +32182,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B564" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C564" t="s">
         <v>20</v>
@@ -32235,10 +32238,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B565" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C565" t="s">
         <v>20</v>
@@ -32291,10 +32294,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B566" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C566" t="s">
         <v>20</v>
@@ -32347,10 +32350,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B567" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C567" t="s">
         <v>20</v>
@@ -32403,10 +32406,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B568" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C568" t="s">
         <v>20</v>
@@ -32459,10 +32462,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B569" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C569" t="s">
         <v>20</v>
@@ -32515,10 +32518,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B570" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C570" t="s">
         <v>20</v>
@@ -32571,10 +32574,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B571" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C571" t="s">
         <v>20</v>
@@ -32627,10 +32630,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B572" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C572" t="s">
         <v>20</v>
@@ -32683,10 +32686,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B573" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C573" t="s">
         <v>20</v>
@@ -32739,10 +32742,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B574" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C574" t="s">
         <v>20</v>
@@ -32795,10 +32798,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B575" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C575" t="s">
         <v>20</v>
@@ -32851,10 +32854,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B576" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C576" t="s">
         <v>20</v>
@@ -32907,10 +32910,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B577" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C577" t="s">
         <v>20</v>
@@ -32963,10 +32966,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B578" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C578" t="s">
         <v>20</v>
@@ -33019,10 +33022,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B579" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C579" t="s">
         <v>20</v>
@@ -33075,10 +33078,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B580" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C580" t="s">
         <v>20</v>
@@ -33131,10 +33134,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B581" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C581" t="s">
         <v>20</v>
@@ -33187,10 +33190,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B582" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C582" t="s">
         <v>20</v>
@@ -33243,10 +33246,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B583" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C583" t="s">
         <v>20</v>
@@ -33299,10 +33302,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B584" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C584" t="s">
         <v>20</v>
@@ -33355,10 +33358,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B585" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C585" t="s">
         <v>20</v>
@@ -33411,10 +33414,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B586" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C586" t="s">
         <v>20</v>
@@ -33467,10 +33470,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B587" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C587" t="s">
         <v>20</v>
@@ -33523,10 +33526,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B588" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C588" t="s">
         <v>20</v>
@@ -33579,10 +33582,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B589" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C589" t="s">
         <v>20</v>
@@ -33635,10 +33638,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B590" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C590" t="s">
         <v>20</v>
@@ -33691,10 +33694,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B591" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C591" t="s">
         <v>20</v>
@@ -33747,10 +33750,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B592" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C592" t="s">
         <v>20</v>
@@ -33803,10 +33806,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B593" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C593" t="s">
         <v>20</v>
@@ -33859,10 +33862,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B594" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C594" t="s">
         <v>20</v>
@@ -33915,10 +33918,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B595" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C595" t="s">
         <v>20</v>
@@ -33971,10 +33974,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B596" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C596" t="s">
         <v>20</v>
@@ -34027,10 +34030,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B597" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C597" t="s">
         <v>20</v>
@@ -34083,10 +34086,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B598" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C598" t="s">
         <v>20</v>
@@ -34139,10 +34142,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B599" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C599" t="s">
         <v>20</v>
@@ -34195,10 +34198,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B600" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C600" t="s">
         <v>20</v>
@@ -34251,10 +34254,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B601" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C601" t="s">
         <v>20</v>
@@ -34307,10 +34310,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B602" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C602" t="s">
         <v>20</v>
@@ -34363,10 +34366,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B603" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C603" t="s">
         <v>20</v>
@@ -34419,10 +34422,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B604" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C604" t="s">
         <v>20</v>
@@ -34475,10 +34478,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B605" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C605" t="s">
         <v>20</v>
@@ -34531,10 +34534,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B606" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C606" t="s">
         <v>20</v>
@@ -34587,10 +34590,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B607" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C607" t="s">
         <v>20</v>
@@ -34643,10 +34646,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B608" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C608" t="s">
         <v>20</v>
@@ -34699,10 +34702,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B609" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C609" t="s">
         <v>20</v>
@@ -34755,10 +34758,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B610" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C610" t="s">
         <v>20</v>
@@ -34811,10 +34814,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B611" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C611" t="s">
         <v>20</v>
@@ -34867,10 +34870,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B612" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C612" t="s">
         <v>20</v>
@@ -34923,10 +34926,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B613" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C613" t="s">
         <v>20</v>
@@ -34979,10 +34982,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B614" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C614" t="s">
         <v>20</v>
@@ -35035,10 +35038,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B615" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C615" t="s">
         <v>20</v>
@@ -35091,10 +35094,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B616" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C616" t="s">
         <v>20</v>
@@ -35147,10 +35150,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B617" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C617" t="s">
         <v>20</v>
@@ -35203,10 +35206,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B618" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C618" t="s">
         <v>20</v>
@@ -35259,10 +35262,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B619" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C619" t="s">
         <v>20</v>
@@ -35315,10 +35318,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B620" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C620" t="s">
         <v>20</v>
@@ -35371,10 +35374,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B621" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C621" t="s">
         <v>20</v>
@@ -35427,10 +35430,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B622" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C622" t="s">
         <v>20</v>
@@ -35483,10 +35486,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B623" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C623" t="s">
         <v>20</v>
@@ -35539,10 +35542,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B624" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C624" t="s">
         <v>20</v>
@@ -35595,10 +35598,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B625" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C625" t="s">
         <v>20</v>
@@ -35651,10 +35654,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B626" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C626" t="s">
         <v>20</v>
@@ -35707,10 +35710,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B627" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C627" t="s">
         <v>20</v>
@@ -35763,10 +35766,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B628" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C628" t="s">
         <v>20</v>
@@ -35819,10 +35822,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B629" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C629" t="s">
         <v>20</v>
@@ -35875,10 +35878,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B630" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C630" t="s">
         <v>20</v>
@@ -35931,10 +35934,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B631" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C631" t="s">
         <v>20</v>
@@ -35987,10 +35990,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B632" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C632" t="s">
         <v>20</v>
@@ -36043,10 +36046,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B633" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C633" t="s">
         <v>20</v>
@@ -36099,10 +36102,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B634" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C634" t="s">
         <v>20</v>
@@ -36155,10 +36158,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B635" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C635" t="s">
         <v>20</v>
@@ -36211,10 +36214,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B636" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C636" t="s">
         <v>20</v>
@@ -36267,10 +36270,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B637" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C637" t="s">
         <v>20</v>
@@ -36323,10 +36326,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B638" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C638" t="s">
         <v>20</v>
@@ -36379,10 +36382,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B639" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C639" t="s">
         <v>20</v>
@@ -36435,10 +36438,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B640" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C640" t="s">
         <v>20</v>
@@ -36491,10 +36494,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B641" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C641" t="s">
         <v>20</v>
@@ -36547,10 +36550,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B642" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C642" t="s">
         <v>20</v>
@@ -36603,10 +36606,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B643" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C643" t="s">
         <v>20</v>
@@ -36659,10 +36662,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B644" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C644" t="s">
         <v>20</v>
@@ -36715,10 +36718,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B645" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C645" t="s">
         <v>20</v>
@@ -36771,10 +36774,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B646" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C646" t="s">
         <v>20</v>
@@ -36827,10 +36830,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B647" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C647" t="s">
         <v>20</v>
@@ -36883,10 +36886,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B648" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C648" t="s">
         <v>20</v>
@@ -36939,10 +36942,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B649" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C649" t="s">
         <v>20</v>
@@ -36995,10 +36998,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B650" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C650" t="s">
         <v>20</v>
@@ -37051,10 +37054,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B651" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C651" t="s">
         <v>20</v>
@@ -37107,10 +37110,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B652" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C652" t="s">
         <v>20</v>
@@ -37163,10 +37166,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B653" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C653" t="s">
         <v>20</v>
@@ -37219,10 +37222,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B654" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C654" t="s">
         <v>20</v>
@@ -37275,10 +37278,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B655" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C655" t="s">
         <v>20</v>
@@ -37331,10 +37334,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B656" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C656" t="s">
         <v>20</v>
@@ -37387,10 +37390,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B657" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C657" t="s">
         <v>20</v>
@@ -37443,10 +37446,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B658" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C658" t="s">
         <v>20</v>
@@ -37499,10 +37502,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B659" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C659" t="s">
         <v>20</v>
@@ -37555,10 +37558,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B660" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C660" t="s">
         <v>20</v>
@@ -37611,10 +37614,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B661" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C661" t="s">
         <v>20</v>
@@ -37667,10 +37670,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B662" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C662" t="s">
         <v>20</v>
@@ -37723,10 +37726,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B663" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C663" t="s">
         <v>20</v>
@@ -37779,10 +37782,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B664" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C664" t="s">
         <v>20</v>
@@ -37835,10 +37838,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B665" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C665" t="s">
         <v>20</v>
@@ -37891,10 +37894,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B666" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C666" t="s">
         <v>20</v>
@@ -37947,10 +37950,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B667" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C667" t="s">
         <v>20</v>
@@ -38003,10 +38006,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B668" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C668" t="s">
         <v>20</v>
@@ -38059,10 +38062,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B669" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C669" t="s">
         <v>20</v>
@@ -38115,10 +38118,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B670" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C670" t="s">
         <v>20</v>
@@ -38171,10 +38174,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B671" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C671" t="s">
         <v>20</v>
@@ -38227,10 +38230,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B672" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C672" t="s">
         <v>20</v>
@@ -38283,10 +38286,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B673" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C673" t="s">
         <v>20</v>
@@ -38339,10 +38342,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B674" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C674" t="s">
         <v>20</v>
@@ -38395,10 +38398,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B675" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C675" t="s">
         <v>20</v>
@@ -38451,10 +38454,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B676" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C676" t="s">
         <v>20</v>
@@ -38507,10 +38510,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B677" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C677" t="s">
         <v>20</v>
@@ -38563,10 +38566,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B678" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C678" t="s">
         <v>20</v>
@@ -38619,10 +38622,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B679" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C679" t="s">
         <v>20</v>
@@ -38675,10 +38678,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B680" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C680" t="s">
         <v>20</v>
@@ -38731,10 +38734,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B681" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C681" t="s">
         <v>20</v>
@@ -38787,10 +38790,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B682" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C682" t="s">
         <v>20</v>
@@ -38843,10 +38846,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B683" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C683" t="s">
         <v>20</v>
@@ -38899,10 +38902,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B684" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C684" t="s">
         <v>20</v>
@@ -38955,10 +38958,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B685" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C685" t="s">
         <v>20</v>
@@ -39011,10 +39014,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B686" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C686" t="s">
         <v>20</v>
@@ -39067,10 +39070,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B687" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C687" t="s">
         <v>20</v>
@@ -39123,10 +39126,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B688" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C688" t="s">
         <v>20</v>
@@ -39179,10 +39182,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B689" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C689" t="s">
         <v>20</v>
@@ -39235,10 +39238,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B690" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C690" t="s">
         <v>20</v>
@@ -39291,10 +39294,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B691" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C691" t="s">
         <v>20</v>
@@ -39347,10 +39350,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B692" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C692" t="s">
         <v>20</v>
@@ -39403,10 +39406,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B693" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C693" t="s">
         <v>20</v>
@@ -39459,10 +39462,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B694" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C694" t="s">
         <v>20</v>
@@ -39515,10 +39518,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B695" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C695" t="s">
         <v>20</v>
@@ -39571,10 +39574,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B696" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C696" t="s">
         <v>20</v>
@@ -39627,10 +39630,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B697" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C697" t="s">
         <v>20</v>
@@ -39683,10 +39686,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B698" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C698" t="s">
         <v>20</v>
@@ -39739,10 +39742,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B699" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C699" t="s">
         <v>20</v>
@@ -39795,10 +39798,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B700" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C700" t="s">
         <v>20</v>
@@ -39851,10 +39854,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B701" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C701" t="s">
         <v>20</v>
@@ -39907,10 +39910,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B702" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C702" t="s">
         <v>20</v>
@@ -39963,10 +39966,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B703" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C703" t="s">
         <v>20</v>
@@ -40019,10 +40022,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B704" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C704" t="s">
         <v>20</v>
@@ -40075,10 +40078,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B705" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C705" t="s">
         <v>20</v>
@@ -40131,10 +40134,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B706" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C706" t="s">
         <v>20</v>
@@ -40187,10 +40190,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B707" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C707" t="s">
         <v>20</v>
@@ -40243,10 +40246,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B708" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C708" t="s">
         <v>20</v>
@@ -40299,10 +40302,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B709" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C709" t="s">
         <v>20</v>
@@ -40355,10 +40358,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B710" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C710" t="s">
         <v>20</v>
@@ -40411,10 +40414,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B711" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C711" t="s">
         <v>20</v>
@@ -40467,10 +40470,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B712" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C712" t="s">
         <v>20</v>
@@ -40523,10 +40526,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B713" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C713" t="s">
         <v>20</v>
@@ -40579,10 +40582,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B714" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C714" t="s">
         <v>20</v>
@@ -40635,10 +40638,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B715" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C715" t="s">
         <v>20</v>
